--- a/data/raw_data/2013/permits-issued-by-nationality-2013.xlsx
+++ b/data/raw_data/2013/permits-issued-by-nationality-2013.xlsx
@@ -1,20 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Drive\ESTUDOS DATA SCIENCE\ie-employment-permit\data\raw_data\2013\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06639B64-91E5-4726-876A-070779C3BCEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="132" windowWidth="15300" windowHeight="8736"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$103</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="96">
   <si>
     <t>Year</t>
   </si>
@@ -79,9 +99,6 @@
     <t>Brazil</t>
   </si>
   <si>
-    <t>Brazilian</t>
-  </si>
-  <si>
     <t>Cameroon</t>
   </si>
   <si>
@@ -124,18 +141,12 @@
     <t>Guatemala</t>
   </si>
   <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
     <t>India</t>
   </si>
   <si>
     <t>Indonesia</t>
   </si>
   <si>
-    <t>Iran, Islamic Republic of</t>
-  </si>
-  <si>
     <t>Iraq</t>
   </si>
   <si>
@@ -145,9 +156,6 @@
     <t>Israel</t>
   </si>
   <si>
-    <t>Ivory Coast</t>
-  </si>
-  <si>
     <t>Jamaica</t>
   </si>
   <si>
@@ -163,15 +171,6 @@
     <t>Kenya</t>
   </si>
   <si>
-    <t>Korea (Republic of (South))</t>
-  </si>
-  <si>
-    <t>Korea, Republic of</t>
-  </si>
-  <si>
-    <t>Kosova</t>
-  </si>
-  <si>
     <t>Kuwait</t>
   </si>
   <si>
@@ -187,12 +186,6 @@
     <t>Libya</t>
   </si>
   <si>
-    <t>Libyan Arab Jamahiriya</t>
-  </si>
-  <si>
-    <t>Macedonia, The Former Yugoslav Republic of</t>
-  </si>
-  <si>
     <t>Malaysia</t>
   </si>
   <si>
@@ -208,9 +201,6 @@
     <t>Moldova</t>
   </si>
   <si>
-    <t>Moldova, Republic of</t>
-  </si>
-  <si>
     <t>Mongolia</t>
   </si>
   <si>
@@ -232,39 +222,21 @@
     <t>Pakistan</t>
   </si>
   <si>
-    <t>Palestine</t>
-  </si>
-  <si>
-    <t>Paraquay</t>
-  </si>
-  <si>
     <t>Peru</t>
   </si>
   <si>
     <t>Philippines</t>
   </si>
   <si>
-    <t>Republic of Serbia</t>
-  </si>
-  <si>
-    <t>Russian Federation</t>
-  </si>
-  <si>
     <t>Samoa</t>
   </si>
   <si>
-    <t>Samoa(USA)</t>
-  </si>
-  <si>
     <t>Saudi Arabia</t>
   </si>
   <si>
     <t>Serbia</t>
   </si>
   <si>
-    <t>Serbia and Montenegro</t>
-  </si>
-  <si>
     <t>Singapore</t>
   </si>
   <si>
@@ -280,15 +252,6 @@
     <t>Syria</t>
   </si>
   <si>
-    <t>Syrian Arab Republic</t>
-  </si>
-  <si>
-    <t>Taiwan</t>
-  </si>
-  <si>
-    <t>Tanzania, United Republic of</t>
-  </si>
-  <si>
     <t>Thailand</t>
   </si>
   <si>
@@ -316,9 +279,6 @@
     <t>United Kingdom</t>
   </si>
   <si>
-    <t>United States of America</t>
-  </si>
-  <si>
     <t>Uruguay</t>
   </si>
   <si>
@@ -328,9 +288,6 @@
     <t>Venezuela</t>
   </si>
   <si>
-    <t>Viet Nam</t>
-  </si>
-  <si>
     <t>Vietnam</t>
   </si>
   <si>
@@ -338,12 +295,39 @@
   </si>
   <si>
     <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -545,6 +529,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -593,7 +580,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -626,9 +613,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -661,6 +665,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -836,20 +857,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.109375" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -872,7 +893,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>2013</v>
       </c>
@@ -893,7 +914,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
         <v>7</v>
@@ -914,7 +935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
         <v>8</v>
@@ -935,7 +956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
         <v>9</v>
@@ -956,7 +977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="8" t="s">
         <v>10</v>
@@ -977,7 +998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="8" t="s">
         <v>11</v>
@@ -998,7 +1019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="8" t="s">
         <v>12</v>
@@ -1019,7 +1040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
         <v>13</v>
@@ -1040,7 +1061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
         <v>14</v>
@@ -1061,7 +1082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="8" t="s">
         <v>15</v>
@@ -1082,7 +1103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="8" t="s">
         <v>16</v>
@@ -1103,7 +1124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
         <v>17</v>
@@ -1124,7 +1145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
         <v>18</v>
@@ -1145,7 +1166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
         <v>19</v>
@@ -1166,7 +1187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="8" t="s">
         <v>20</v>
@@ -1187,10 +1208,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
@@ -1208,10 +1229,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -1229,10 +1250,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="1">
         <v>67</v>
@@ -1250,10 +1271,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="1">
         <v>160</v>
@@ -1271,10 +1292,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="1">
         <v>2</v>
@@ -1292,10 +1313,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="1">
         <v>3</v>
@@ -1313,10 +1334,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="1">
         <v>7</v>
@@ -1334,10 +1355,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
@@ -1355,10 +1376,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
@@ -1376,10 +1397,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="1">
         <v>45</v>
@@ -1397,10 +1418,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" s="1">
         <v>0</v>
@@ -1418,10 +1439,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" s="1">
         <v>4</v>
@@ -1439,10 +1460,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29" s="1">
         <v>0</v>
@@ -1460,10 +1481,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" s="1">
         <v>2</v>
@@ -1481,10 +1502,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
@@ -1502,10 +1523,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="8" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C32" s="1">
         <v>3</v>
@@ -1523,10 +1544,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C33" s="1">
         <v>1157</v>
@@ -1544,10 +1565,10 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C34" s="1">
         <v>5</v>
@@ -1565,10 +1586,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="8" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="C35" s="1">
         <v>7</v>
@@ -1586,10 +1607,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C36" s="1">
         <v>3</v>
@@ -1607,10 +1628,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C37" s="1">
         <v>0</v>
@@ -1628,10 +1649,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C38" s="1">
         <v>28</v>
@@ -1649,10 +1670,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="8" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
@@ -1670,10 +1691,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C40" s="1">
         <v>1</v>
@@ -1691,10 +1712,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C41" s="1">
         <v>70</v>
@@ -1712,10 +1733,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C42" s="1">
         <v>3</v>
@@ -1733,10 +1754,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C43" s="1">
         <v>5</v>
@@ -1754,10 +1775,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C44" s="1">
         <v>1</v>
@@ -1775,10 +1796,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="8" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="C45" s="1">
         <v>0</v>
@@ -1796,10 +1817,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="8" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="C46" s="1">
         <v>11</v>
@@ -1817,10 +1838,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="8" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C47" s="1">
         <v>0</v>
@@ -1838,10 +1859,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="8" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C48" s="1">
         <v>3</v>
@@ -1859,10 +1880,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="8" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C49" s="1">
         <v>0</v>
@@ -1880,10 +1901,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="8" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C50" s="1">
         <v>1</v>
@@ -1901,10 +1922,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C51" s="1">
         <v>20</v>
@@ -1922,10 +1943,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="8" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C52" s="1">
         <v>0</v>
@@ -1943,10 +1964,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
       <c r="B53" s="8" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C53" s="1">
         <v>0</v>
@@ -1964,10 +1985,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="8" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="C54" s="1">
         <v>2</v>
@@ -1985,10 +2006,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="8" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C55" s="1">
         <v>73</v>
@@ -2006,10 +2027,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
       <c r="B56" s="8" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C56" s="1">
         <v>2</v>
@@ -2027,10 +2048,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
       <c r="B57" s="8" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C57" s="1">
         <v>21</v>
@@ -2048,10 +2069,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
       <c r="B58" s="8" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C58" s="1">
         <v>24</v>
@@ -2069,10 +2090,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
       <c r="B59" s="8" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C59" s="1">
         <v>0</v>
@@ -2090,10 +2111,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
       <c r="B60" s="8" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C60" s="1">
         <v>2</v>
@@ -2111,10 +2132,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
       <c r="B61" s="8" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C61" s="1">
         <v>0</v>
@@ -2132,10 +2153,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
       <c r="B62" s="8" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C62" s="1">
         <v>12</v>
@@ -2153,10 +2174,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="7"/>
       <c r="B63" s="8" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C63" s="1">
         <v>11</v>
@@ -2174,10 +2195,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
       <c r="B64" s="8" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C64" s="1">
         <v>23</v>
@@ -2195,10 +2216,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
       <c r="B65" s="8" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C65" s="1">
         <v>1</v>
@@ -2216,10 +2237,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
       <c r="B66" s="8" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C66" s="1">
         <v>21</v>
@@ -2237,10 +2258,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
       <c r="B67" s="8" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C67" s="1">
         <v>102</v>
@@ -2258,10 +2279,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
       <c r="B68" s="8" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1">
         <v>1</v>
@@ -2279,10 +2300,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
       <c r="B69" s="8" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="C69" s="1">
         <v>0</v>
@@ -2300,10 +2321,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
       <c r="B70" s="8" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C70" s="1">
         <v>3</v>
@@ -2321,10 +2342,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
       <c r="B71" s="8" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C71" s="1">
         <v>110</v>
@@ -2342,10 +2363,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
       <c r="B72" s="8" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C72" s="1">
         <v>7</v>
@@ -2363,10 +2384,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="7"/>
       <c r="B73" s="8" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="C73" s="1">
         <v>71</v>
@@ -2384,10 +2405,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
       <c r="B74" s="8" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C74" s="1">
         <v>0</v>
@@ -2405,10 +2426,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="7"/>
       <c r="B75" s="8" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C75" s="1">
         <v>0</v>
@@ -2426,10 +2447,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="7"/>
       <c r="B76" s="8" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C76" s="1">
         <v>3</v>
@@ -2447,10 +2468,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="7"/>
       <c r="B77" s="8" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C77" s="1">
         <v>1</v>
@@ -2468,10 +2489,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="7"/>
       <c r="B78" s="8" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C78" s="1">
         <v>0</v>
@@ -2489,10 +2510,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="7"/>
       <c r="B79" s="8" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C79" s="1">
         <v>9</v>
@@ -2510,10 +2531,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="7"/>
       <c r="B80" s="8" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C80" s="1">
         <v>50</v>
@@ -2531,10 +2552,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="7"/>
       <c r="B81" s="8" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C81" s="1">
         <v>7</v>
@@ -2552,10 +2573,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="7"/>
       <c r="B82" s="8" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C82" s="1">
         <v>9</v>
@@ -2573,10 +2594,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="7"/>
       <c r="B83" s="8" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C83" s="1">
         <v>1</v>
@@ -2594,10 +2615,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="7"/>
       <c r="B84" s="8" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="C84" s="1">
         <v>4</v>
@@ -2615,10 +2636,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="7"/>
       <c r="B85" s="8" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="C85" s="1">
         <v>4</v>
@@ -2636,10 +2657,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="7"/>
       <c r="B86" s="8" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C86" s="1">
         <v>1</v>
@@ -2657,10 +2678,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="7"/>
       <c r="B87" s="8" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="C87" s="1">
         <v>24</v>
@@ -2678,10 +2699,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="7"/>
       <c r="B88" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="C88" s="1">
         <v>1</v>
@@ -2699,10 +2720,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="7"/>
       <c r="B89" s="8" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="C89" s="1">
         <v>3</v>
@@ -2720,10 +2741,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="7"/>
       <c r="B90" s="8" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="C90" s="1">
         <v>54</v>
@@ -2741,10 +2762,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="7"/>
       <c r="B91" s="8" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="C91" s="1">
         <v>1</v>
@@ -2762,10 +2783,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="7"/>
       <c r="B92" s="8" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="C92" s="1">
         <v>2</v>
@@ -2783,10 +2804,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="7"/>
       <c r="B93" s="8" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C93" s="1">
         <v>57</v>
@@ -2804,10 +2825,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="7"/>
       <c r="B94" s="8" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C94" s="1">
         <v>2</v>
@@ -2825,10 +2846,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="7"/>
       <c r="B95" s="8" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C95" s="1">
         <v>1</v>
@@ -2846,10 +2867,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="7"/>
       <c r="B96" s="8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C96" s="1">
         <v>481</v>
@@ -2867,10 +2888,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="7"/>
       <c r="B97" s="8" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="C97" s="1">
         <v>1</v>
@@ -2888,10 +2909,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="7"/>
       <c r="B98" s="8" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="C98" s="1">
         <v>2</v>
@@ -2909,10 +2930,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="7"/>
       <c r="B99" s="8" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="C99" s="1">
         <v>13</v>
@@ -2930,10 +2951,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="7"/>
       <c r="B100" s="8" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="C100" s="1">
         <v>5</v>
@@ -2951,10 +2972,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="7"/>
       <c r="B101" s="8" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="C101" s="1">
         <v>3</v>
@@ -2972,10 +2993,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="7"/>
       <c r="B102" s="8" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C102" s="1">
         <v>1</v>
@@ -2993,10 +3014,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="9"/>
       <c r="B103" s="10" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C103" s="11">
         <v>7</v>
@@ -3015,6 +3036,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G103" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>